--- a/interfaceFramework/testData/edgeUser.xlsx
+++ b/interfaceFramework/testData/edgeUser.xlsx
@@ -1,21 +1,31 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="21029"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{93E7713E-BDE9-4385-90DC-4240F5A3B544}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="90" windowWidth="19200" windowHeight="11640" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="90" windowWidth="19200" windowHeight="11640" firstSheet="4" activeTab="10" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="read" sheetId="1" r:id="rId1"/>
     <sheet name="queryById" sheetId="2" r:id="rId2"/>
+    <sheet name="userQuery" sheetId="3" r:id="rId3"/>
+    <sheet name="caseImport" sheetId="4" r:id="rId4"/>
+    <sheet name="caseAllot" sheetId="5" r:id="rId5"/>
+    <sheet name="assistApply" sheetId="6" r:id="rId6"/>
+    <sheet name="markCase" sheetId="7" r:id="rId7"/>
+    <sheet name="queryLoanByCase" sheetId="8" r:id="rId8"/>
+    <sheet name="assetModify" sheetId="9" r:id="rId9"/>
+    <sheet name="goAllot" sheetId="10" r:id="rId10"/>
+    <sheet name="add_cuiji" sheetId="11" r:id="rId11"/>
   </sheets>
   <calcPr calcId="125725"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="174" uniqueCount="72">
   <si>
     <t>URL</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -72,23 +82,242 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>无权查看他人消息</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>13</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>post_json</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>resp_code</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>expect_message</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>查询用户信息</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/user/query</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>assetId</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>userId</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>35</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>36</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>导入案件</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/case/caseImport</t>
+  </si>
+  <si>
+    <t>post_file</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>caseId</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ownerId</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>单个案件分配</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/case/caseAllot</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>11</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>单个案件分配-异常情况</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>100</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>159521</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>经办不参与分案</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>applyRemark</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/case/assistApply</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>协催申请</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>测试python</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/case/markCase</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>mark</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/case/queryLoanByCase</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>查询逾期信息</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>编辑资产方基本信息</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/asset/modify</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>id</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>name</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>type</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>importNumberDesensitization</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>restorationNumberDesensitization</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>54</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>python测试修改</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/seatallot/goAllot</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>参与分案</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>userIdList</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>[50]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/dunRecord/add</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>encryptCallNumber</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>callStatus</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>statusCode</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>body</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>repayDate</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>python测试添加催记</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>B3sLtM77R0TjlikbXdYypADmBvCHIIJ6MwkOrPmmSZaCbQjzqb-GzcQeA9yVQDH_9yH_ZzFqDKUmMWxiingnndi8dQkMu6sIJGDyZjDbKFNnBrg3WJoeVoofnLPpPz-ARzmy84FIPbgDFFG_Cup4TGn03nGA6ZYPFWhlnKFFNQY</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2018-12-10 00:00:00</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>6</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>python测试添加催记,无应答</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>KJmtt8BfqRapXOq4ePWWUtsuWIt7Igy2hRGIdEAe3fAPcs44rKWEgEpLqebMHCJ0mLHMRFvm_0NlvxqodyXsaFLePsVaDDYGyu9uzOSg9TXEiknKABbM8jPczpRANYThvwe-bOMOmP4AA49SJLK7BH325hDTapyaso5Qwp4ekx8</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="3">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -110,6 +339,21 @@
       <name val="Consolas"/>
       <family val="3"/>
     </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF333333"/>
+      <name val="Consolas"/>
+      <family val="3"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -119,12 +363,27 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color rgb="FFCCCCCC"/>
+      </left>
+      <right style="medium">
+        <color rgb="FFCCCCCC"/>
+      </right>
+      <top style="medium">
+        <color rgb="FFCCCCCC"/>
+      </top>
+      <bottom style="medium">
+        <color rgb="FFCCCCCC"/>
+      </bottom>
       <diagonal/>
     </border>
   </borders>
@@ -133,7 +392,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -144,6 +403,18 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -164,7 +435,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题​​">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -206,7 +477,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -238,9 +509,27 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -272,6 +561,24 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -447,14 +754,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:F3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F1" sqref="F1"/>
+      <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="14.625" customWidth="1"/>
     <col min="2" max="2" width="27" customWidth="1"/>
@@ -462,7 +769,7 @@
     <col min="4" max="4" width="11.375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A1" t="s">
         <v>8</v>
       </c>
@@ -482,7 +789,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:6">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A2" s="1" t="s">
         <v>1</v>
       </c>
@@ -490,7 +797,7 @@
         <v>3</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D2" s="1">
         <v>10</v>
@@ -502,7 +809,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="3" spans="1:6">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A3" s="1" t="s">
         <v>1</v>
       </c>
@@ -510,7 +817,7 @@
         <v>3</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D3" s="1">
         <v>11</v>
@@ -529,22 +836,199 @@
 </worksheet>
 </file>
 
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7CE4B483-CC61-4819-AE9E-8C1EAFC248A1}">
+  <dimension ref="A1:F2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:XFD2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="21" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetData>
+    <row r="1" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D1" t="s">
+        <v>57</v>
+      </c>
+      <c r="E1" t="s">
+        <v>16</v>
+      </c>
+      <c r="F1" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A2" t="s">
+        <v>56</v>
+      </c>
+      <c r="B2" t="s">
+        <v>55</v>
+      </c>
+      <c r="C2" t="s">
+        <v>15</v>
+      </c>
+      <c r="D2" s="4" t="s">
+        <v>58</v>
+      </c>
+      <c r="E2">
+        <v>200</v>
+      </c>
+      <c r="F2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{224D891D-BE35-4F54-8043-8D9415D4653A}">
+  <dimension ref="A1:K3"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H15" sqref="H15"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="14" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <cols>
+    <col min="7" max="7" width="14" style="6"/>
+    <col min="9" max="9" width="17.25" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D1" t="s">
+        <v>29</v>
+      </c>
+      <c r="E1" t="s">
+        <v>60</v>
+      </c>
+      <c r="F1" t="s">
+        <v>61</v>
+      </c>
+      <c r="G1" t="s">
+        <v>62</v>
+      </c>
+      <c r="H1" t="s">
+        <v>63</v>
+      </c>
+      <c r="I1" t="s">
+        <v>64</v>
+      </c>
+      <c r="J1" t="s">
+        <v>16</v>
+      </c>
+      <c r="K1" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A2" t="s">
+        <v>56</v>
+      </c>
+      <c r="B2" t="s">
+        <v>59</v>
+      </c>
+      <c r="C2" t="s">
+        <v>15</v>
+      </c>
+      <c r="D2" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="E2" s="4" t="s">
+        <v>67</v>
+      </c>
+      <c r="F2" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="G2" t="s">
+        <v>66</v>
+      </c>
+      <c r="H2" s="4" t="s">
+        <v>65</v>
+      </c>
+      <c r="I2" s="7" t="s">
+        <v>68</v>
+      </c>
+      <c r="J2">
+        <v>200</v>
+      </c>
+      <c r="K2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A3" t="s">
+        <v>56</v>
+      </c>
+      <c r="B3" t="s">
+        <v>59</v>
+      </c>
+      <c r="C3" t="s">
+        <v>15</v>
+      </c>
+      <c r="D3" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="E3" s="4" t="s">
+        <v>71</v>
+      </c>
+      <c r="F3" s="4" t="s">
+        <v>69</v>
+      </c>
+      <c r="G3"/>
+      <c r="H3" s="4" t="s">
+        <v>70</v>
+      </c>
+      <c r="I3" s="7"/>
+      <c r="J3">
+        <v>200</v>
+      </c>
+      <c r="K3" t="s">
+        <v>7</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:F3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I1" sqref="I1"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F9" sqref="F9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="18.125" customWidth="1"/>
     <col min="2" max="2" width="28.25" customWidth="1"/>
     <col min="4" max="4" width="9.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6">
+    <row r="1" spans="1:6" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>8</v>
       </c>
@@ -564,7 +1048,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:6">
+    <row r="2" spans="1:6" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>5</v>
       </c>
@@ -580,11 +1064,11 @@
       <c r="E2" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="F2" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6">
+      <c r="F2" s="5" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>5</v>
       </c>
@@ -595,17 +1079,517 @@
         <v>6</v>
       </c>
       <c r="D3" s="3" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="E3" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="F3" t="s">
-        <v>14</v>
+      <c r="F3" s="5" t="s">
+        <v>7</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EF722CCD-505E-4128-98DD-347791A8F415}">
+  <dimension ref="A1:G3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G13" sqref="G13"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <cols>
+    <col min="1" max="1" width="13" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="12.75" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.625" customWidth="1"/>
+    <col min="6" max="6" width="10.5" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="16.125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D1" t="s">
+        <v>20</v>
+      </c>
+      <c r="E1" t="s">
+        <v>21</v>
+      </c>
+      <c r="F1" t="s">
+        <v>16</v>
+      </c>
+      <c r="G1" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A2" t="s">
+        <v>18</v>
+      </c>
+      <c r="B2" t="s">
+        <v>19</v>
+      </c>
+      <c r="C2" t="s">
+        <v>6</v>
+      </c>
+      <c r="D2" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="E2" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="F2">
+        <v>200</v>
+      </c>
+      <c r="G2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A3" t="s">
+        <v>18</v>
+      </c>
+      <c r="B3" t="s">
+        <v>19</v>
+      </c>
+      <c r="C3" t="s">
+        <v>6</v>
+      </c>
+      <c r="D3" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="E3" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="F3">
+        <v>200</v>
+      </c>
+      <c r="G3" t="s">
+        <v>7</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A09E8278-B9A7-4507-BAEA-5ECA40660BF6}">
+  <dimension ref="A1:F2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F2" sqref="F2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="15.625" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetData>
+    <row r="1" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D1" t="s">
+        <v>20</v>
+      </c>
+      <c r="E1" t="s">
+        <v>16</v>
+      </c>
+      <c r="F1" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A2" t="s">
+        <v>25</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="C2" t="s">
+        <v>27</v>
+      </c>
+      <c r="D2" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="E2">
+        <v>200</v>
+      </c>
+      <c r="F2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{890F7F71-C767-4122-97CB-CFC8B7F4CB3D}">
+  <dimension ref="A1:G3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F2" sqref="F2:G2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="16.625" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <cols>
+    <col min="1" max="1" width="29.25" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D1" t="s">
+        <v>29</v>
+      </c>
+      <c r="E1" t="s">
+        <v>30</v>
+      </c>
+      <c r="F1" t="s">
+        <v>16</v>
+      </c>
+      <c r="G1" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A2" t="s">
+        <v>31</v>
+      </c>
+      <c r="B2" t="s">
+        <v>32</v>
+      </c>
+      <c r="C2" t="s">
+        <v>15</v>
+      </c>
+      <c r="D2" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="E2" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="F2">
+        <v>200</v>
+      </c>
+      <c r="G2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A3" t="s">
+        <v>34</v>
+      </c>
+      <c r="B3" t="s">
+        <v>32</v>
+      </c>
+      <c r="C3" t="s">
+        <v>15</v>
+      </c>
+      <c r="D3" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="E3" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="F3">
+        <v>200</v>
+      </c>
+      <c r="G3" t="s">
+        <v>37</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8FB15D26-CF24-4DFA-AA2B-71D64C46E264}">
+  <dimension ref="A1:G2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:G2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="20.5" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetData>
+    <row r="1" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D1" t="s">
+        <v>29</v>
+      </c>
+      <c r="E1" t="s">
+        <v>38</v>
+      </c>
+      <c r="F1" t="s">
+        <v>16</v>
+      </c>
+      <c r="G1" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A2" t="s">
+        <v>40</v>
+      </c>
+      <c r="B2" t="s">
+        <v>39</v>
+      </c>
+      <c r="C2" t="s">
+        <v>15</v>
+      </c>
+      <c r="D2" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="E2" t="s">
+        <v>41</v>
+      </c>
+      <c r="F2">
+        <v>200</v>
+      </c>
+      <c r="G2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{95832AE1-7A02-4492-8308-C256B1333FAF}">
+  <dimension ref="A1:G2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D2" sqref="D2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="24.875" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetData>
+    <row r="1" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D1" t="s">
+        <v>29</v>
+      </c>
+      <c r="E1" t="s">
+        <v>43</v>
+      </c>
+      <c r="F1" t="s">
+        <v>16</v>
+      </c>
+      <c r="G1" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A2" t="s">
+        <v>40</v>
+      </c>
+      <c r="B2" t="s">
+        <v>42</v>
+      </c>
+      <c r="C2" t="s">
+        <v>15</v>
+      </c>
+      <c r="D2" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="E2" t="b">
+        <v>1</v>
+      </c>
+      <c r="F2">
+        <v>200</v>
+      </c>
+      <c r="G2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C6082203-70F3-4CCF-BA5C-2AEE71A24FA8}">
+  <dimension ref="A1:F2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:XFD2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="23.25" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetData>
+    <row r="1" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D1" t="s">
+        <v>29</v>
+      </c>
+      <c r="E1" t="s">
+        <v>16</v>
+      </c>
+      <c r="F1" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A2" t="s">
+        <v>45</v>
+      </c>
+      <c r="B2" t="s">
+        <v>44</v>
+      </c>
+      <c r="C2" t="s">
+        <v>6</v>
+      </c>
+      <c r="D2" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="E2">
+        <v>200</v>
+      </c>
+      <c r="F2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2AE56556-0A91-410F-96F5-744F034A0A59}">
+  <dimension ref="A1:J2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F26" sqref="F26"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="17.625" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetData>
+    <row r="1" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D1" t="s">
+        <v>48</v>
+      </c>
+      <c r="E1" t="s">
+        <v>49</v>
+      </c>
+      <c r="F1" t="s">
+        <v>50</v>
+      </c>
+      <c r="G1" t="s">
+        <v>51</v>
+      </c>
+      <c r="H1" t="s">
+        <v>52</v>
+      </c>
+      <c r="I1" t="s">
+        <v>16</v>
+      </c>
+      <c r="J1" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A2" t="s">
+        <v>46</v>
+      </c>
+      <c r="B2" t="s">
+        <v>47</v>
+      </c>
+      <c r="C2" t="s">
+        <v>15</v>
+      </c>
+      <c r="D2" s="4" t="s">
+        <v>53</v>
+      </c>
+      <c r="E2" t="s">
+        <v>54</v>
+      </c>
+      <c r="F2" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="G2" t="b">
+        <v>0</v>
+      </c>
+      <c r="H2" t="b">
+        <v>0</v>
+      </c>
+      <c r="I2">
+        <v>200</v>
+      </c>
+      <c r="J2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
 </file>